--- a/kittyserver/gametools/parseExcelTool/Excel/Building.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/Building.xlsx
@@ -23,12 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">建筑表_3_building!$A$7:$AR$208</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">勿删_1_delete!$A$1:$AC$223</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="1673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5624" uniqueCount="1673">
   <si>
     <t>dependID
 （10010001-10019999普通建筑）
@@ -5195,7 +5195,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5347,14 +5347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -5445,7 +5437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5780,11 +5772,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5792,7 +5781,133 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6263,10 +6378,10 @@
   <dimension ref="A1:AS393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="AE155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D193" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A183" sqref="A183:XFD183"/>
+      <selection pane="bottomRight" activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29276,83 +29391,400 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="209" spans="6:42" x14ac:dyDescent="0.15">
-      <c r="F209" s="60"/>
-      <c r="K209" s="60"/>
-      <c r="AD209" s="60"/>
-    </row>
-    <row r="210" spans="6:42" x14ac:dyDescent="0.15">
-      <c r="F210" s="60"/>
-      <c r="K210" s="60"/>
-      <c r="AD210" s="60"/>
-      <c r="AP210" s="117"/>
-    </row>
-    <row r="211" spans="6:42" x14ac:dyDescent="0.15">
-      <c r="F211" s="60"/>
-      <c r="K211" s="60"/>
-      <c r="AD211" s="60"/>
-    </row>
-    <row r="212" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A209" s="35">
+        <v>10010057</v>
+      </c>
+      <c r="B209" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C209" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D209" s="35">
+        <v>2</v>
+      </c>
+      <c r="E209" s="40">
+        <v>300</v>
+      </c>
+      <c r="F209" s="40">
+        <v>0</v>
+      </c>
+      <c r="G209" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H209" s="40">
+        <v>1</v>
+      </c>
+      <c r="I209" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J209" s="50">
+        <v>8</v>
+      </c>
+      <c r="K209" s="50">
+        <v>0</v>
+      </c>
+      <c r="M209" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N209" s="50">
+        <v>1</v>
+      </c>
+      <c r="O209" s="59"/>
+      <c r="P209" s="35">
+        <v>0</v>
+      </c>
+      <c r="S209" s="60">
+        <v>0</v>
+      </c>
+      <c r="T209" s="40">
+        <v>0</v>
+      </c>
+      <c r="U209" s="40">
+        <v>0</v>
+      </c>
+      <c r="V209" s="40">
+        <v>0</v>
+      </c>
+      <c r="W209" s="40">
+        <v>0</v>
+      </c>
+      <c r="X209" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="54"/>
+      <c r="Z209" s="59"/>
+      <c r="AA209" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="35">
+        <f t="shared" ref="AB209" si="7">MROUND(IF(N209&gt;10,AA209*20,AA209*3),20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC209" s="54">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="40">
+        <v>1800</v>
+      </c>
+      <c r="AG209" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH209" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ209" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL209" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM209" s="60">
+        <v>5</v>
+      </c>
+      <c r="AN209" s="60">
+        <v>29</v>
+      </c>
+      <c r="AO209" s="60">
+        <v>45</v>
+      </c>
+      <c r="AP209" s="60">
+        <v>47</v>
+      </c>
+      <c r="AQ209" s="60">
+        <v>0</v>
+      </c>
+      <c r="AR209" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A210" s="35">
+        <v>10010057</v>
+      </c>
+      <c r="B210" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C210" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D210" s="35">
+        <v>3</v>
+      </c>
+      <c r="E210" s="40">
+        <v>300</v>
+      </c>
+      <c r="F210" s="40">
+        <v>0</v>
+      </c>
+      <c r="G210" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H210" s="40">
+        <v>1</v>
+      </c>
+      <c r="I210" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J210" s="50">
+        <v>8</v>
+      </c>
+      <c r="K210" s="50">
+        <v>0</v>
+      </c>
+      <c r="M210" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N210" s="50">
+        <v>1</v>
+      </c>
+      <c r="O210" s="59"/>
+      <c r="P210" s="35">
+        <v>0</v>
+      </c>
+      <c r="S210" s="60">
+        <v>0</v>
+      </c>
+      <c r="T210" s="40">
+        <v>0</v>
+      </c>
+      <c r="U210" s="40">
+        <v>0</v>
+      </c>
+      <c r="V210" s="40">
+        <v>0</v>
+      </c>
+      <c r="W210" s="40">
+        <v>0</v>
+      </c>
+      <c r="X210" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="54"/>
+      <c r="Z210" s="59"/>
+      <c r="AA210" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="35">
+        <f t="shared" ref="AB210:AB211" si="8">MROUND(IF(N210&gt;10,AA210*20,AA210*3),20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC210" s="54">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="40">
+        <v>1800</v>
+      </c>
+      <c r="AG210" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH210" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ210" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL210" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM210" s="60">
+        <v>5</v>
+      </c>
+      <c r="AN210" s="60">
+        <v>29</v>
+      </c>
+      <c r="AO210" s="60">
+        <v>45</v>
+      </c>
+      <c r="AP210" s="60">
+        <v>47</v>
+      </c>
+      <c r="AQ210" s="60">
+        <v>0</v>
+      </c>
+      <c r="AR210" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A211" s="35">
+        <v>10010057</v>
+      </c>
+      <c r="B211" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="C211" s="103" t="s">
+        <v>410</v>
+      </c>
+      <c r="D211" s="35">
+        <v>4</v>
+      </c>
+      <c r="E211" s="40">
+        <v>300</v>
+      </c>
+      <c r="F211" s="40">
+        <v>0</v>
+      </c>
+      <c r="G211" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H211" s="40">
+        <v>1</v>
+      </c>
+      <c r="I211" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J211" s="50">
+        <v>8</v>
+      </c>
+      <c r="K211" s="50">
+        <v>0</v>
+      </c>
+      <c r="M211" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="N211" s="50">
+        <v>1</v>
+      </c>
+      <c r="O211" s="59"/>
+      <c r="P211" s="35">
+        <v>0</v>
+      </c>
+      <c r="S211" s="60">
+        <v>0</v>
+      </c>
+      <c r="T211" s="40">
+        <v>0</v>
+      </c>
+      <c r="U211" s="40">
+        <v>0</v>
+      </c>
+      <c r="V211" s="40">
+        <v>0</v>
+      </c>
+      <c r="W211" s="40">
+        <v>0</v>
+      </c>
+      <c r="X211" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="54"/>
+      <c r="Z211" s="59"/>
+      <c r="AA211" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC211" s="54">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="40">
+        <v>1800</v>
+      </c>
+      <c r="AG211" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH211" s="54" t="s">
+        <v>413</v>
+      </c>
+      <c r="AJ211" s="60" t="s">
+        <v>414</v>
+      </c>
+      <c r="AL211" s="60">
+        <v>1</v>
+      </c>
+      <c r="AM211" s="60">
+        <v>5</v>
+      </c>
+      <c r="AN211" s="60">
+        <v>29</v>
+      </c>
+      <c r="AO211" s="60">
+        <v>45</v>
+      </c>
+      <c r="AP211" s="60">
+        <v>47</v>
+      </c>
+      <c r="AQ211" s="60">
+        <v>0</v>
+      </c>
+      <c r="AR211" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="212" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F212" s="60"/>
       <c r="K212" s="60"/>
       <c r="AD212" s="60"/>
     </row>
-    <row r="213" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F213" s="60"/>
       <c r="K213" s="60"/>
       <c r="AD213" s="60"/>
     </row>
-    <row r="214" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F214" s="60"/>
       <c r="K214" s="60"/>
       <c r="AD214" s="60"/>
     </row>
-    <row r="215" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F215" s="60"/>
       <c r="K215" s="60"/>
       <c r="AD215" s="60"/>
     </row>
-    <row r="216" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F216" s="60"/>
       <c r="K216" s="60"/>
       <c r="AD216" s="60"/>
     </row>
-    <row r="217" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F217" s="60"/>
       <c r="K217" s="60"/>
       <c r="AD217" s="60"/>
     </row>
-    <row r="218" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F218" s="60"/>
       <c r="K218" s="60"/>
       <c r="AD218" s="60"/>
     </row>
-    <row r="219" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F219" s="60"/>
       <c r="K219" s="60"/>
       <c r="AD219" s="60"/>
     </row>
-    <row r="220" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F220" s="60"/>
       <c r="K220" s="60"/>
       <c r="AD220" s="60"/>
     </row>
-    <row r="221" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F221" s="60"/>
       <c r="K221" s="60"/>
       <c r="AD221" s="60"/>
     </row>
-    <row r="222" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F222" s="60"/>
       <c r="K222" s="60"/>
       <c r="AD222" s="60"/>
     </row>
-    <row r="223" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F223" s="60"/>
       <c r="K223" s="60"/>
       <c r="AD223" s="60"/>
     </row>
-    <row r="224" spans="6:42" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.15">
       <c r="F224" s="60"/>
       <c r="K224" s="60"/>
       <c r="AD224" s="60"/>
@@ -30182,112 +30614,157 @@
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B195:K195">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
       <formula>LEN(TRIM(B195))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="37" stopIfTrue="1">
       <formula>LEN(TRIM(B195))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E199:F199">
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(E199))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="41" stopIfTrue="1">
       <formula>LEN(TRIM(E199))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C206 S7:S205">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I206">
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="22" stopIfTrue="1">
       <formula>LEN(TRIM(I206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
       <formula>LEN(TRIM(B207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I207">
-    <cfRule type="expression" dxfId="20" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="21" stopIfTrue="1">
       <formula>LEN(TRIM(I207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(B208))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I208">
-    <cfRule type="expression" dxfId="18" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="20" stopIfTrue="1">
       <formula>LEN(TRIM(I208))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C207:C208">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
       <formula>LEN(TRIM(C207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185:F185 I180 B180:C180 E199:F199 AG195 S195:T195 AD195 N195 E197:F197 N197 N189:N191 E189:F191 AG193 S193:T193 AD193 N193 B193:K193 AG180 A4:B5 C4 AG175 S175:T175 AD175 N175 B175:K175 A1:S2 Y124:Z128 W45:W51 AG8:AG153 A8:D153 F8:K153 S8:T153 K154:K161 AD8:AD161 F154:F172 E8:E172 E173:F173 D4:S5 N7:N172 A7:C153 D7:M7 Q7:R7">
-    <cfRule type="expression" dxfId="16" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C180 C193 C11:C153 C175 C195">
-    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:T180 AD180 N180 D180:H180 J180:K180">
-    <cfRule type="expression" dxfId="14" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>LEN(TRIM(D180))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="35" stopIfTrue="1">
       <formula>LEN(TRIM(D180))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A207:A208 A206:H206 J206:K206 S206:T206 AD206 N206">
-    <cfRule type="expression" dxfId="12" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(A206))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C208 C207:H207 J207:K207 S207:T207 AD207 N207">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
       <formula>LEN(TRIM(C207))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N208 D208:H208 J208:K208 S208:T208 AD208">
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
       <formula>LEN(TRIM(D208))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(B6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
       <formula>LEN(TRIM(I6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="14" stopIfTrue="1">
       <formula>LEN(TRIM(A6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 C6:H6 J6:K6 S6:T6 AD6">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(C6))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S209">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+      <formula>LEN(TRIM(S209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG209 S209:T209 AD209 A209:K209 N209">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+      <formula>LEN(TRIM(A209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C209">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(C209))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S210">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(S210))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG210 S210:T210 AD210 A210:K210 N210">
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>LEN(TRIM(A210))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C210">
+    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(C210))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S211">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(S211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG211 S211:T211 AD211 A211:K211 N211">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A211))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C211">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>LEN(TRIM(C211))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30424,7 +30901,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C1:D2 C4:D7">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46206,7 +46683,7 @@
   <autoFilter ref="A1:AC223"/>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="K4:M5 A1:O2 A4:J223 N4:O223 AB7:AB220 U44:U50 M6">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74048,7 +74525,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="L4:N5 O4:P223 I4:K223 K224:K288 AC7:AC8 AC22:AC220 V44:V50 N6 B276:B280 B261:B270 AF261:AF270 A1:R2 Q4:R192 R193:R234 AF7:AF234 X42:Y48 M6:M270 F4:G288 A4:E234 H4:H260 A235:A288 B284:B288 I224:J234 L6:L234 R261:R288 AC261:AC288">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -74188,7 +74665,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C1:D2 C4:D7">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -79457,7 +79934,7 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="D1:D151 D186 D184 D165 D170 B170 B184 A1:B143 B165 B186 I1:I4">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
   </conditionalFormatting>
